--- a/每週買賣報表/權重賣出/權重賣出部位表2023-03-16.xlsx
+++ b/每週買賣報表/權重賣出/權重賣出部位表2023-03-16.xlsx
@@ -14,93 +14,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>賣出部位</t>
   </si>
   <si>
+    <t>3704</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>6603</t>
+  </si>
+  <si>
+    <t>6451</t>
+  </si>
+  <si>
+    <t>6180</t>
+  </si>
+  <si>
+    <t>4160</t>
+  </si>
+  <si>
+    <t>4111</t>
+  </si>
+  <si>
+    <t>3705</t>
+  </si>
+  <si>
+    <t>3537</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>2392</t>
+  </si>
+  <si>
     <t>8464</t>
   </si>
   <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
     <t>1783</t>
   </si>
   <si>
-    <t>4160</t>
-  </si>
-  <si>
-    <t>6451</t>
-  </si>
-  <si>
-    <t>2753</t>
-  </si>
-  <si>
-    <t>2327</t>
-  </si>
-  <si>
-    <t>6180</t>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>4945</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>6435</t>
+  </si>
+  <si>
+    <t>6284</t>
+  </si>
+  <si>
+    <t>6187</t>
+  </si>
+  <si>
+    <t>5438</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
+    <t>4735</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>3317</t>
+  </si>
+  <si>
     <t>2428</t>
   </si>
   <si>
-    <t>1773</t>
-  </si>
-  <si>
-    <t>3317</t>
-  </si>
-  <si>
-    <t>6435</t>
-  </si>
-  <si>
-    <t>1515</t>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>3652</t>
+  </si>
+  <si>
+    <t>5288</t>
+  </si>
+  <si>
+    <t>8433</t>
+  </si>
+  <si>
+    <t>5907</t>
+  </si>
+  <si>
+    <t>3147</t>
+  </si>
+  <si>
+    <t>2425</t>
+  </si>
+  <si>
+    <t>1618</t>
   </si>
   <si>
     <t>8403</t>
   </si>
   <si>
-    <t>5907</t>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>8105</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
+    <t>6609</t>
   </si>
   <si>
     <t>6523</t>
   </si>
   <si>
-    <t>8433</t>
+    <t>1777</t>
   </si>
   <si>
     <t>1268</t>
-  </si>
-  <si>
-    <t>5288</t>
-  </si>
-  <si>
-    <t>4163</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>3147</t>
-  </si>
-  <si>
-    <t>2425</t>
-  </si>
-  <si>
-    <t>2063</t>
-  </si>
-  <si>
-    <t>3652</t>
-  </si>
-  <si>
-    <t>6609</t>
-  </si>
-  <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>1777</t>
   </si>
 </sst>
 </file>
@@ -458,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -546,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -554,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -562,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -570,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -578,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -586,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -594,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -602,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -610,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -618,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -626,7 +680,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -634,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -642,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -650,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -658,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -666,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -674,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -682,7 +736,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -690,6 +744,150 @@
         <v>28</v>
       </c>
       <c r="B29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>-2.5</v>
       </c>
     </row>
